--- a/06-03-2023/data/output/xlsx/sample_0/14_causality.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/14_causality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="162">
   <si>
     <t>name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__17</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -136,6 +133,30 @@
     <t>num_of_decimals__21</t>
   </si>
   <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
@@ -172,6 +193,18 @@
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__14</t>
+  </si>
+  <si>
+    <t>num_of_equals__15</t>
+  </si>
+  <si>
+    <t>num_of_equals__16</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
@@ -220,6 +253,9 @@
     <t>num_of_mults_and_divs__15</t>
   </si>
   <si>
+    <t>num_of_mults_and_divs__16</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
@@ -250,9 +286,6 @@
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
@@ -292,21 +325,6 @@
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__15</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__16</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__17</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
@@ -334,130 +352,154 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__7,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__6,num_of_unknowns__7</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__10,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
   </si>
 </sst>
 </file>
@@ -815,7 +857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -852,22 +894,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="D2">
-        <v>0.1446904100687838</v>
+        <v>0.0983863807592554</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F2">
-        <v>0.06818181818181818</v>
+        <v>0.06057494866529774</v>
       </c>
       <c r="G2">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H2">
-        <v>0.001047549644744031</v>
+        <v>0.001456712192351856</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -878,22 +920,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="D3">
-        <v>0.1433123907547093</v>
+        <v>0.09535564977005859</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F3">
-        <v>0.07425149700598803</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="G3">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H3">
-        <v>0.007117228468913883</v>
+        <v>0.005816828462119041</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -904,22 +946,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>0.06806875470832074</v>
+        <v>0.033969653367859</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F4">
-        <v>0.1818181818181818</v>
+        <v>0.0625</v>
       </c>
       <c r="G4">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H4">
-        <v>0.1146839132811077</v>
+        <v>0.003381763527054112</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -930,22 +972,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0.08261333135275416</v>
+        <v>0.06548293874864645</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F5">
-        <v>0.2222222222222222</v>
+        <v>0.1</v>
       </c>
       <c r="G5">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H5">
-        <v>0.1550879536851481</v>
+        <v>0.04088176352705412</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -959,19 +1001,19 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>0.08261333135275416</v>
+        <v>0.07408991513271107</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F6">
-        <v>0.2222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G6">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H6">
-        <v>0.1550879536851481</v>
+        <v>0.05199287463816522</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -984,20 +1026,17 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>0.1552085090568127</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>111</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H7">
-        <v>0.2661990647962592</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1010,20 +1049,17 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>0.1977983463859727</v>
-      </c>
-      <c r="E8" t="s">
-        <v>112</v>
+      <c r="D8" t="s">
+        <v>111</v>
       </c>
       <c r="F8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H8">
-        <v>0.3328657314629259</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1034,22 +1070,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>0.06268661831178513</v>
-      </c>
-      <c r="E9" t="s">
-        <v>113</v>
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
       </c>
       <c r="F9">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H9">
-        <v>0.1828657314629258</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1060,22 +1093,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>0.1466207210082733</v>
-      </c>
-      <c r="E10" t="s">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H10">
-        <v>0.2661990647962592</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1086,22 +1116,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>444</v>
       </c>
       <c r="D11">
-        <v>0.2532751791828273</v>
+        <v>0.09232951712189212</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.06531531531531531</v>
       </c>
       <c r="G11">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H11">
-        <v>0.4328657314629258</v>
+        <v>0.006197078842369426</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1112,22 +1142,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>427</v>
+        <v>310</v>
       </c>
       <c r="D12">
-        <v>0.1323168354274916</v>
+        <v>0.004521332949586691</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F12">
-        <v>0.07025761124121779</v>
+        <v>0.06774193548387097</v>
       </c>
       <c r="G12">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H12">
-        <v>0.003123342704143647</v>
+        <v>0.008623699010925086</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1138,22 +1168,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="D13">
-        <v>0.1259573685132001</v>
+        <v>-0.0114146907935852</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F13">
-        <v>0.06779661016949153</v>
+        <v>0.06435643564356436</v>
       </c>
       <c r="G13">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H13">
-        <v>0.0006623416324173792</v>
+        <v>0.00523819917061847</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1164,22 +1194,19 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>175</v>
-      </c>
-      <c r="D14">
-        <v>0.1226518241544929</v>
-      </c>
-      <c r="E14" t="s">
-        <v>118</v>
+        <v>152</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
       </c>
       <c r="F14">
-        <v>0.08</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G14">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H14">
-        <v>0.01286573146292586</v>
+        <v>-0.00648665752557747</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1190,22 +1217,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D15">
-        <v>0.1263410091026987</v>
+        <v>0.01140995346514334</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F15">
-        <v>0.09230769230769231</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="G15">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H15">
-        <v>0.02517342377061817</v>
+        <v>0.02251441658827859</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1216,22 +1243,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>0.05738691658507201</v>
+        <v>0.01292232156604402</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F16">
-        <v>0.1025641025641026</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="G16">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H16">
-        <v>0.03542983402702841</v>
+        <v>0.02911705764470118</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1242,19 +1269,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>0.04218875144773038</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
       </c>
       <c r="F17">
-        <v>0.0576923076923077</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="G17">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H17">
-        <v>-0.00944196084476645</v>
+        <v>0.05716083329449597</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1268,19 +1298,19 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <v>0.01059381770505124</v>
+        <v>0.02929863679501529</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F18">
         <v>0.07692307692307693</v>
       </c>
       <c r="G18">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H18">
-        <v>0.009788808386002781</v>
+        <v>0.01780484045013104</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1291,22 +1321,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>654</v>
       </c>
       <c r="D19">
-        <v>0.03243182823749249</v>
+        <v>0.06147847958697461</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19">
-        <v>0.1176470588235294</v>
+        <v>0.06574923547400612</v>
       </c>
       <c r="G19">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H19">
-        <v>0.05051279028645526</v>
+        <v>0.006630999001060227</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1317,22 +1347,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>650</v>
+        <v>527</v>
       </c>
       <c r="D20">
-        <v>0.1392812050461674</v>
+        <v>0.07259598200535185</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F20">
-        <v>0.07846153846153846</v>
+        <v>0.07779886148007591</v>
       </c>
       <c r="G20">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H20">
-        <v>0.01132726992446431</v>
+        <v>0.01868062500713002</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1343,22 +1373,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>522</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>0.07149667708004005</v>
+        <v>-0.04849915811426406</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F21">
-        <v>0.09003831417624521</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="G21">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H21">
-        <v>0.02290404563917106</v>
+        <v>0.0690868917321823</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1369,22 +1399,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>-0.04454361835139577</v>
+        <v>-0.03599893842408493</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22">
-        <v>0.1666666666666667</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="G22">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H22">
-        <v>0.09953239812959251</v>
+        <v>0.07131654613574975</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1395,22 +1425,19 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>27</v>
-      </c>
-      <c r="D23">
-        <v>-0.06344128694253517</v>
-      </c>
-      <c r="E23" t="s">
-        <v>126</v>
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
       </c>
       <c r="F23">
-        <v>0.1481481481481481</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H23">
-        <v>0.08101387961107399</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1421,19 +1448,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F24">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H24">
-        <v>-0.004634268537074146</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1444,22 +1471,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="D25">
-        <v>-0.1099555773330748</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
       </c>
       <c r="F25">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H25">
-        <v>0.01619906479625918</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1470,22 +1494,19 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>-0.09342061122325504</v>
-      </c>
-      <c r="E26" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
       </c>
       <c r="F26">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H26">
-        <v>0.04397684257403696</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1498,20 +1519,17 @@
       <c r="C27">
         <v>8</v>
       </c>
-      <c r="D27">
-        <v>-0.07967221648512642</v>
-      </c>
-      <c r="E27" t="s">
-        <v>129</v>
+      <c r="D27" t="s">
+        <v>111</v>
       </c>
       <c r="F27">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H27">
-        <v>0.05786573146292585</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1522,22 +1540,19 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>0.008830005937219837</v>
-      </c>
-      <c r="E28" t="s">
-        <v>130</v>
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
       </c>
       <c r="F28">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H28">
-        <v>0.1828657314629258</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1548,19 +1563,19 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H29">
-        <v>-0.06713426853707415</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1574,16 +1589,16 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H30">
-        <v>-0.06713426853707415</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1594,19 +1609,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>105</v>
+        <v>415</v>
+      </c>
+      <c r="D31">
+        <v>0.08731072844877084</v>
+      </c>
+      <c r="E31" t="s">
+        <v>128</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.08674698795180723</v>
       </c>
       <c r="G31">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H31">
-        <v>-0.06713426853707415</v>
+        <v>0.02762875147886134</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1617,22 +1635,19 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>411</v>
-      </c>
-      <c r="D32">
-        <v>0.08966295500565136</v>
-      </c>
-      <c r="E32" t="s">
-        <v>131</v>
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
       </c>
       <c r="F32">
-        <v>0.09732360097323602</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H32">
-        <v>0.03018933243616187</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1643,19 +1658,19 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H33">
-        <v>-0.06713426853707415</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1669,16 +1684,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H34">
-        <v>-0.06713426853707415</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1689,22 +1704,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>303</v>
-      </c>
-      <c r="D35">
-        <v>0.09691436442962181</v>
-      </c>
-      <c r="E35" t="s">
-        <v>132</v>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
       </c>
       <c r="F35">
-        <v>0.1089108910891089</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H35">
-        <v>0.04177662255203476</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1715,22 +1727,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>207</v>
-      </c>
-      <c r="D36">
-        <v>0.05339680825542924</v>
-      </c>
-      <c r="E36" t="s">
-        <v>133</v>
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
       </c>
       <c r="F36">
-        <v>0.09178743961352658</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H36">
-        <v>0.02465317107645243</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1741,22 +1750,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>163</v>
-      </c>
-      <c r="D37">
-        <v>-0.1102126937618187</v>
-      </c>
-      <c r="E37" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>0.08588957055214724</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H37">
-        <v>0.0187553020150731</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1767,22 +1773,19 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>112</v>
-      </c>
-      <c r="D38">
-        <v>-0.08998946176991507</v>
-      </c>
-      <c r="E38" t="s">
-        <v>135</v>
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
       </c>
       <c r="F38">
-        <v>0.1160714285714286</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H38">
-        <v>0.04893716003435443</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1793,22 +1796,19 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>89</v>
-      </c>
-      <c r="D39">
-        <v>-0.08133570846850662</v>
-      </c>
-      <c r="E39" t="s">
-        <v>136</v>
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
       </c>
       <c r="F39">
-        <v>0.1235955056179775</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H39">
-        <v>0.05646123708090338</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1819,22 +1819,19 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>59</v>
-      </c>
-      <c r="D40">
-        <v>-0.07890717746976207</v>
-      </c>
-      <c r="E40" t="s">
-        <v>137</v>
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
       </c>
       <c r="F40">
-        <v>0.1186440677966102</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H40">
-        <v>0.05150979925953603</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1845,22 +1842,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>45</v>
-      </c>
-      <c r="D41">
-        <v>-0.04533731455388314</v>
-      </c>
-      <c r="E41" t="s">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
       </c>
       <c r="F41">
-        <v>0.1555555555555556</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H41">
-        <v>0.08842128701848141</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1871,22 +1865,22 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>996</v>
+        <v>296</v>
       </c>
       <c r="D42">
-        <v>0.1459874224508447</v>
+        <v>-0.07010939101395088</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F42">
-        <v>0.06726907630522089</v>
+        <v>0.08783783783783784</v>
       </c>
       <c r="G42">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H42">
-        <v>0.0001348077681467413</v>
+        <v>0.02871960136489195</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1897,22 +1891,22 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>991</v>
+        <v>215</v>
       </c>
       <c r="D43">
-        <v>0.1460230413196783</v>
+        <v>-0.009460917908695287</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F43">
-        <v>0.06760847628657922</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="G43">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H43">
-        <v>0.0004742077495050734</v>
+        <v>0.01995153096891458</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1923,22 +1917,22 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D44">
-        <v>-0.05847357565787983</v>
+        <v>0.01069984454652271</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F44">
-        <v>0.08333333333333333</v>
+        <v>0.09036144578313253</v>
       </c>
       <c r="G44">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H44">
-        <v>0.01619906479625918</v>
+        <v>0.03124320931018664</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1949,19 +1943,22 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>105</v>
+        <v>123</v>
+      </c>
+      <c r="D45">
+        <v>0.02819370202907744</v>
+      </c>
+      <c r="E45" t="s">
+        <v>132</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.1056910569105691</v>
       </c>
       <c r="G45">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H45">
-        <v>-0.06713426853707415</v>
+        <v>0.04657282043762322</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1972,19 +1969,22 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="D46">
+        <v>0.03594029011044612</v>
+      </c>
+      <c r="E46" t="s">
+        <v>133</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="G46">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H46">
-        <v>-0.06713426853707415</v>
+        <v>0.05428382538272421</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1995,19 +1995,22 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>649</v>
-      </c>
-      <c r="D47" t="s">
-        <v>105</v>
+        <v>74</v>
+      </c>
+      <c r="D47">
+        <v>-0.101074191326846</v>
+      </c>
+      <c r="E47" t="s">
+        <v>134</v>
       </c>
       <c r="F47">
-        <v>0.06317411402157165</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="G47">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H47">
-        <v>-0.003960154515502495</v>
+        <v>0.04898987163516223</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2018,19 +2021,22 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>475</v>
-      </c>
-      <c r="D48" t="s">
-        <v>105</v>
+        <v>48</v>
+      </c>
+      <c r="D48">
+        <v>-0.0745701749835556</v>
+      </c>
+      <c r="E48" t="s">
+        <v>135</v>
       </c>
       <c r="F48">
-        <v>0.06526315789473684</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="G48">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H48">
-        <v>-0.001871110642337304</v>
+        <v>0.04504843019372078</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2041,19 +2047,22 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>307</v>
-      </c>
-      <c r="D49" t="s">
-        <v>105</v>
+        <v>996</v>
+      </c>
+      <c r="D49">
+        <v>0.09787076653801155</v>
+      </c>
+      <c r="E49" t="s">
+        <v>136</v>
       </c>
       <c r="F49">
-        <v>0.05863192182410423</v>
+        <v>0.05923694779116466</v>
       </c>
       <c r="G49">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H49">
-        <v>-0.008502346712969913</v>
+        <v>0.0001187113182187713</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2064,19 +2073,22 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>233</v>
-      </c>
-      <c r="D50" t="s">
-        <v>105</v>
+        <v>988</v>
+      </c>
+      <c r="D50">
+        <v>0.09799814262810976</v>
+      </c>
+      <c r="E50" t="s">
+        <v>137</v>
       </c>
       <c r="F50">
-        <v>0.06437768240343347</v>
+        <v>0.0597165991902834</v>
       </c>
       <c r="G50">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H50">
-        <v>-0.002756586133640673</v>
+        <v>0.0005983627173375139</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2087,19 +2099,22 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>154</v>
-      </c>
-      <c r="D51" t="s">
-        <v>105</v>
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>0.02651812611835064</v>
+      </c>
+      <c r="E51" t="s">
+        <v>138</v>
       </c>
       <c r="F51">
-        <v>0.05844155844155844</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G51">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H51">
-        <v>-0.008692710095515706</v>
+        <v>0.007548430193720777</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2110,22 +2125,22 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>0.1002215754252989</v>
+        <v>0.06328539560213237</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F52">
-        <v>0.07920792079207921</v>
+        <v>0.125</v>
       </c>
       <c r="G52">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H52">
-        <v>0.01207365225500506</v>
+        <v>0.0658817635270541</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2136,22 +2151,22 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>0.03259079684262435</v>
+        <v>0.1222570276344822</v>
       </c>
       <c r="E53" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F53">
-        <v>0.08064516129032258</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G53">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H53">
-        <v>0.01351089275324843</v>
+        <v>0.1075484301937208</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2162,22 +2177,19 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>30</v>
-      </c>
-      <c r="D54">
-        <v>0.05123890970021784</v>
-      </c>
-      <c r="E54" t="s">
-        <v>144</v>
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>111</v>
       </c>
       <c r="F54">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H54">
-        <v>0.03286573146292586</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2188,19 +2200,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F55">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H55">
-        <v>-0.02546760187040748</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2211,19 +2223,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F56">
-        <v>0.03508771929824561</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H56">
-        <v>-0.03204654923882853</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2234,19 +2246,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H57">
-        <v>-0.06713426853707415</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2257,19 +2269,19 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>636</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.05817610062893082</v>
       </c>
       <c r="G58">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H58">
-        <v>-0.06713426853707415</v>
+        <v>-0.0009421358440150698</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2280,19 +2292,22 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>105</v>
+        <v>486</v>
+      </c>
+      <c r="D59">
+        <v>0.06989514570116269</v>
+      </c>
+      <c r="E59" t="s">
+        <v>141</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.05967078189300411</v>
       </c>
       <c r="G59">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H59">
-        <v>-0.06713426853707415</v>
+        <v>0.0005525454200582258</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2303,19 +2318,22 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>105</v>
+        <v>320</v>
+      </c>
+      <c r="D60">
+        <v>0.05809974533286223</v>
+      </c>
+      <c r="E60" t="s">
+        <v>142</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="G60">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H60">
-        <v>-0.06713426853707415</v>
+        <v>0.003381763527054112</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2326,19 +2344,22 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>105</v>
+        <v>236</v>
+      </c>
+      <c r="D61">
+        <v>0.0715503420509573</v>
+      </c>
+      <c r="E61" t="s">
+        <v>143</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G61">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H61">
-        <v>-0.06713426853707415</v>
+        <v>0.008678373696545637</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2349,19 +2370,22 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>105</v>
+        <v>167</v>
+      </c>
+      <c r="D62">
+        <v>0.06569489559809503</v>
+      </c>
+      <c r="E62" t="s">
+        <v>144</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.0658682634730539</v>
       </c>
       <c r="G62">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H62">
-        <v>-0.06713426853707415</v>
+        <v>0.00675002700010801</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2375,16 +2399,16 @@
         <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F63">
-        <v>0.03636363636363636</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="G63">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H63">
-        <v>-0.03077063217343778</v>
+        <v>-0.01366369101840043</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2395,19 +2419,19 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F64">
-        <v>0.03225806451612903</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="G64">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H64">
-        <v>-0.03487620402094511</v>
+        <v>-0.01296439031909973</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2418,19 +2442,19 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G65">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H65">
-        <v>-0.06713426853707415</v>
+        <v>-0.0002947070611811833</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2441,19 +2465,19 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="D66" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>0.04888888888888889</v>
       </c>
       <c r="G66">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H66">
-        <v>-0.06713426853707415</v>
+        <v>-0.010229347584057</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2464,19 +2488,19 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.05056179775280899</v>
       </c>
       <c r="G67">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H67">
-        <v>-0.06713426853707415</v>
+        <v>-0.008556438720136901</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2487,19 +2511,22 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>25</v>
-      </c>
-      <c r="D68" t="s">
-        <v>105</v>
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>0.07000008582893258</v>
+      </c>
+      <c r="E68" t="s">
+        <v>145</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G68">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H68">
-        <v>-0.06713426853707415</v>
+        <v>0.0658817635270541</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2510,19 +2537,19 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H69">
-        <v>-0.06713426853707415</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2533,19 +2560,19 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H70">
-        <v>-0.06713426853707415</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2556,19 +2583,19 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>998</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F71">
-        <v>0.06713426853707415</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2579,19 +2606,19 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>708</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F72">
-        <v>0.06638418079096045</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H72">
-        <v>-0.0007500877461136951</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2602,19 +2629,19 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H73">
-        <v>-0.06713426853707415</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2625,19 +2652,19 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F74">
-        <v>0.04132231404958678</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H74">
-        <v>-0.02581195448748737</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2648,19 +2675,19 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F75">
-        <v>0.03703703703703703</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="G75">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H75">
-        <v>-0.03009723150003711</v>
+        <v>-0.02433562777729371</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2671,19 +2698,19 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F76">
-        <v>0.06451612903225806</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="G76">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H76">
-        <v>-0.002618139504816083</v>
+        <v>-0.01314122497869302</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2694,19 +2721,19 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F77">
-        <v>0.04761904761904762</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G77">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H77">
-        <v>-0.01951522091802653</v>
+        <v>-0.02340395075866018</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2717,22 +2744,19 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>11</v>
-      </c>
-      <c r="D78">
-        <v>-0.03997489226223037</v>
-      </c>
-      <c r="E78" t="s">
-        <v>145</v>
+        <v>45</v>
+      </c>
+      <c r="D78" t="s">
+        <v>111</v>
       </c>
       <c r="F78">
-        <v>0.09090909090909091</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="G78">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H78">
-        <v>0.02377482237201677</v>
+        <v>-0.01467379202850144</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2743,22 +2767,22 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D79">
-        <v>0.03419590303186913</v>
+        <v>0.1103588298937738</v>
       </c>
       <c r="E79" t="s">
         <v>146</v>
       </c>
       <c r="F79">
-        <v>0.25</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G79">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H79">
-        <v>0.1828657314629258</v>
+        <v>0.01231033495562554</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2769,19 +2793,22 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s">
-        <v>105</v>
+        <v>21</v>
+      </c>
+      <c r="D80">
+        <v>0.1249946287467346</v>
+      </c>
+      <c r="E80" t="s">
+        <v>147</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="G80">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H80">
-        <v>-0.06713426853707415</v>
+        <v>0.03611985876514934</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2792,19 +2819,22 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="D81">
+        <v>0.2587974866430683</v>
+      </c>
+      <c r="E81" t="s">
+        <v>148</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G81">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H81">
-        <v>-0.06713426853707415</v>
+        <v>0.0658817635270541</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2815,19 +2845,22 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>457</v>
-      </c>
-      <c r="D82" t="s">
-        <v>105</v>
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>0.03647950597544364</v>
+      </c>
+      <c r="E82" t="s">
+        <v>149</v>
       </c>
       <c r="F82">
-        <v>0.06345733041575492</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G82">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H82">
-        <v>-0.003676938121319223</v>
+        <v>0.02421509686038744</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2838,22 +2871,22 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>180</v>
+        <v>997</v>
       </c>
       <c r="D83">
-        <v>0.1034090002197817</v>
+        <v>0.09782130362384832</v>
       </c>
       <c r="E83" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F83">
-        <v>0.08888888888888889</v>
+        <v>0.05917753259779338</v>
       </c>
       <c r="G83">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H83">
-        <v>0.02175462035181475</v>
+        <v>5.92961248474938E-05</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2864,19 +2897,22 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>105</v>
+        <v>704</v>
+      </c>
+      <c r="D84">
+        <v>0.08160786290153757</v>
+      </c>
+      <c r="E84" t="s">
+        <v>151</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.05965909090909091</v>
       </c>
       <c r="G84">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H84">
-        <v>-0.06713426853707415</v>
+        <v>0.0005408544361450232</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2887,19 +2923,19 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.04201680672268908</v>
       </c>
       <c r="G85">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H85">
-        <v>-0.06713426853707415</v>
+        <v>-0.01710142975025681</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2910,19 +2946,19 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H86">
-        <v>-0.06713426853707415</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2933,19 +2969,19 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H87">
-        <v>-0.06713426853707415</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2956,19 +2992,19 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H88">
-        <v>-0.06713426853707415</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2979,19 +3015,19 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H89">
-        <v>-0.06713426853707415</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3002,19 +3038,19 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H90">
-        <v>-0.06713426853707415</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3025,19 +3061,19 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H91">
-        <v>-0.06713426853707415</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3048,19 +3084,19 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F92">
-        <v>0.06382978723404255</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H92">
-        <v>-0.003304481303031598</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3071,19 +3107,22 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>55</v>
-      </c>
-      <c r="D93" t="s">
-        <v>105</v>
+        <v>466</v>
+      </c>
+      <c r="D93">
+        <v>0.08627038233588379</v>
+      </c>
+      <c r="E93" t="s">
+        <v>152</v>
       </c>
       <c r="F93">
-        <v>0.05454545454545454</v>
+        <v>0.06652360515021459</v>
       </c>
       <c r="G93">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H93">
-        <v>-0.0125888139916196</v>
+        <v>0.007405368677268702</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3094,19 +3133,22 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>30</v>
-      </c>
-      <c r="D94" t="s">
-        <v>105</v>
+        <v>184</v>
+      </c>
+      <c r="D94">
+        <v>0.1097579059352541</v>
+      </c>
+      <c r="E94" t="s">
+        <v>153</v>
       </c>
       <c r="F94">
-        <v>0.03333333333333333</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="G94">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H94">
-        <v>-0.03380093520374081</v>
+        <v>0.03870785048357585</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3117,19 +3159,22 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>21</v>
-      </c>
-      <c r="D95" t="s">
-        <v>105</v>
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>0.1444001438571627</v>
+      </c>
+      <c r="E95" t="s">
+        <v>154</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G95">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H95">
-        <v>-0.06713426853707415</v>
+        <v>0.1908817635270541</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3140,19 +3185,19 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H96">
-        <v>-0.06713426853707415</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3163,19 +3208,19 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H97">
-        <v>-0.06713426853707415</v>
+        <v>-0.05911823647294589</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3186,19 +3231,22 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s">
-        <v>105</v>
+        <v>85</v>
+      </c>
+      <c r="D98">
+        <v>0.06847294578373597</v>
+      </c>
+      <c r="E98" t="s">
+        <v>155</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="G98">
-        <v>0.06713426853707415</v>
+        <v>0.05911823647294589</v>
       </c>
       <c r="H98">
-        <v>-0.06713426853707415</v>
+        <v>0.01146999882117176</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3209,19 +3257,175 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D99" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="G99">
+        <v>0.05911823647294589</v>
+      </c>
+      <c r="H99">
+        <v>-0.01467379202850144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0.06713426853707415</v>
-      </c>
-      <c r="H99">
-        <v>-0.06713426853707415</v>
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100">
+        <v>0.07372382082553017</v>
+      </c>
+      <c r="E100" t="s">
+        <v>156</v>
+      </c>
+      <c r="F100">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G100">
+        <v>0.05911823647294589</v>
+      </c>
+      <c r="H100">
+        <v>0.02783828526618454</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>17</v>
+      </c>
+      <c r="D101">
+        <v>0.09924721401202524</v>
+      </c>
+      <c r="E101" t="s">
+        <v>157</v>
+      </c>
+      <c r="F101">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="G101">
+        <v>0.05911823647294589</v>
+      </c>
+      <c r="H101">
+        <v>0.05852882235058352</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102">
+        <v>0.143981844700594</v>
+      </c>
+      <c r="E102" t="s">
+        <v>158</v>
+      </c>
+      <c r="F102">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="G102">
+        <v>0.05911823647294589</v>
+      </c>
+      <c r="H102">
+        <v>0.1226999453452359</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <v>0.02758560046715881</v>
+      </c>
+      <c r="E103" t="s">
+        <v>159</v>
+      </c>
+      <c r="F103">
+        <v>0.125</v>
+      </c>
+      <c r="G103">
+        <v>0.05911823647294589</v>
+      </c>
+      <c r="H103">
+        <v>0.0658817635270541</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>0.05311491411160386</v>
+      </c>
+      <c r="E104" t="s">
+        <v>160</v>
+      </c>
+      <c r="F104">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G104">
+        <v>0.05911823647294589</v>
+      </c>
+      <c r="H104">
+        <v>0.1075484301937208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <v>0.09384250363681669</v>
+      </c>
+      <c r="E105" t="s">
+        <v>161</v>
+      </c>
+      <c r="F105">
+        <v>0.2</v>
+      </c>
+      <c r="G105">
+        <v>0.05911823647294589</v>
+      </c>
+      <c r="H105">
+        <v>0.1408817635270541</v>
       </c>
     </row>
   </sheetData>
